--- a/armory-status.xlsx
+++ b/armory-status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devWin10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F65CB0-910D-4EF5-B1CE-E6F574116E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92384315-FAF0-4796-BAD1-4F0A28413E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{EB0CB8B8-BD47-4C59-BAEF-C0A674E8DD0A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
   <si>
     <t>3D</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>node (js)</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -712,7 +709,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,7 +725,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -745,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
@@ -787,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>11</v>
@@ -851,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
@@ -867,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -883,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>11</v>
@@ -899,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>7</v>
@@ -967,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>9</v>
@@ -981,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>9</v>
@@ -995,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>9</v>
@@ -1009,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>9</v>
@@ -1023,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>9</v>
@@ -1073,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="15"/>
     </row>
@@ -1089,13 +1086,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="15"/>
     </row>
@@ -1105,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>9</v>
@@ -1121,13 +1118,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="15"/>
     </row>

--- a/armory-status.xlsx
+++ b/armory-status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devWin10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devWin10\Desktop\GITHUB\GITHUB_armory_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92384315-FAF0-4796-BAD1-4F0A28413E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5C793-ED2C-4C74-99BC-45E62D6B67DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{EB0CB8B8-BD47-4C59-BAEF-C0A674E8DD0A}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,8 +1019,8 @@
       <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>9</v>
